--- a/biology/Microbiologie/Cymbellaceae/Cymbellaceae.xlsx
+++ b/biology/Microbiologie/Cymbellaceae/Cymbellaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cymbellaceae sont une famille d'algues diatomées de l'ordre des Cymbellales, classée dans le phylum des Bacillariophyta. 
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Cymbella, composé du préfixe cymb-, « creux, coupe ; nacelle » et du suffixe -ella, petite, littéralement « petite coupe » ou « petite nacelle », en référence à la forme de la diatomée.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (7 mai 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (7 mai 2022) :
 Afrocymbella Krammer, 2003
 Brebissonia Grunow, 1860
 Celebesia Kapustin, Kuilkovskiy &amp; Kociolek, 2017
@@ -572,7 +588,7 @@
 Paraplaconeis Kulikovskiy, Lange-Bertalot &amp; Metzeltin, 2012
 Pseudocymbopleura Pomazkina &amp; Rodionova, 2014
 Yasnitskaya Rodionova &amp; Pomazkina, 2014
-Selon ITIS      (21 juillet 2017)[3] :
+Selon ITIS      (21 juillet 2017) :
 Afrocymbella Krammer
 Brebissonia Grunow
 Cymbella Agardh
@@ -585,7 +601,7 @@
 Okedenia Eulenstein ex De Toni
 Oricymba Jüttner, Krammer, E.J. Cox, Van de Vijver &amp; Tuji in Jütnner &amp; al.
 Placoneis Mersechkowsky
-Selon World Register of Marine Species                               (21 juillet 2017)[4] :
+Selon World Register of Marine Species                               (21 juillet 2017) :
 Afrocymbella K. Krammer, 2003
 Brebissonia A. Grunow, 1860
 Cymbella C.A. Agardh, 1830
